--- a/sample.xlsx
+++ b/sample.xlsx
@@ -220,7 +220,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -255,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,9 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
